--- a/Mechanical and Chemical.xlsx
+++ b/Mechanical and Chemical.xlsx
@@ -32,9 +32,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Property class</t>
-  </si>
-  <si>
     <t>Material and Heat Treatment</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>1101 Mpa</t>
+  </si>
+  <si>
+    <t>Property Class</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,7 @@
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D12:D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1014,219 +1014,219 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>88</v>
-      </c>
       <c r="I1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="K1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>84</v>
-      </c>
       <c r="M1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="O1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>80</v>
-      </c>
       <c r="Q1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>78</v>
-      </c>
       <c r="S1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="34" t="s">
-        <v>76</v>
-      </c>
       <c r="U1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="W1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="Y1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="AB1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="AD1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="34" t="s">
-        <v>66</v>
-      </c>
       <c r="AF1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="AH1" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="AL1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="AM1" s="34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="31">
         <v>4.5999999999999996</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="43">
         <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="43">
         <v>0.05</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="43">
         <v>0.06</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="37">
         <v>22</v>
       </c>
       <c r="AE2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ2" s="37">
         <v>67</v>
@@ -1235,111 +1235,111 @@
         <v>95</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="31">
         <v>4.8</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="43">
         <v>0.55000000000000004</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="43">
         <v>0.05</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="43">
         <v>0.06</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" s="37">
         <v>71</v>
@@ -1348,21 +1348,21 @@
         <v>95</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="31">
         <v>5.6</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="31">
         <v>0.13</v>
@@ -1371,88 +1371,88 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="43">
         <v>0.05</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="43">
         <v>0.06</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="37">
         <v>20</v>
       </c>
       <c r="AE4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="37">
         <v>79</v>
@@ -1461,111 +1461,111 @@
         <v>95</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="31">
         <v>5.8</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12">
         <v>0.55000000000000004</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="13">
         <v>0.05</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="13">
         <v>0.06</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X5" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="37">
         <v>82</v>
@@ -1574,22 +1574,22 @@
         <v>95</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="32">
         <v>6.8</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="17">
         <v>0.15</v>
@@ -1598,89 +1598,89 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="18">
         <v>0.05</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="18">
         <v>0.06</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="38"/>
       <c r="Z6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="38">
         <v>89</v>
@@ -1689,22 +1689,22 @@
         <v>99.5</v>
       </c>
       <c r="AL6" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="33">
         <v>8.8000000000000007</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="42">
         <v>0.15</v>
@@ -1713,85 +1713,85 @@
         <v>0.4</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="42">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD7" s="36">
         <v>12</v>
       </c>
       <c r="AE7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" s="36">
         <v>52</v>
       </c>
       <c r="AG7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="36">
         <v>22</v>
@@ -1800,27 +1800,27 @@
         <v>32</v>
       </c>
       <c r="AJ7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="31">
         <v>8.8000000000000007</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="43">
         <v>0.25</v>
@@ -1829,85 +1829,85 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD8" s="37">
         <v>12</v>
       </c>
       <c r="AE8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="37">
         <v>52</v>
       </c>
       <c r="AG8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="37">
         <v>23</v>
@@ -1916,28 +1916,28 @@
         <v>34</v>
       </c>
       <c r="AJ8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="15" thickBot="1">
       <c r="A9" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="32">
         <v>8.8000000000000007</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="44">
         <v>0.2</v>
@@ -1946,85 +1946,85 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="38">
         <v>12</v>
       </c>
       <c r="AE9" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="37">
         <v>52</v>
       </c>
       <c r="AG9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH9" s="38">
         <v>23</v>
@@ -2033,28 +2033,28 @@
         <v>34</v>
       </c>
       <c r="AJ9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="33">
         <v>9.8000000000000007</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="42">
         <v>0.15</v>
@@ -2063,85 +2063,85 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" s="42">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="36">
         <v>10</v>
       </c>
       <c r="AE10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="36">
         <v>48</v>
       </c>
       <c r="AG10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="36">
         <v>28</v>
@@ -2150,27 +2150,27 @@
         <v>37</v>
       </c>
       <c r="AJ10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="31">
         <v>9.8000000000000007</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="43">
         <v>0.25</v>
@@ -2179,85 +2179,85 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z11" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="37">
         <v>10</v>
       </c>
       <c r="AE11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" s="37">
         <v>48</v>
       </c>
       <c r="AG11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" s="37">
         <v>28</v>
@@ -2266,28 +2266,28 @@
         <v>37</v>
       </c>
       <c r="AJ11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15" thickBot="1">
       <c r="A12" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="32">
         <v>9.8000000000000007</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="44">
         <v>0.2</v>
@@ -2296,85 +2296,85 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="38">
         <v>10</v>
       </c>
       <c r="AE12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="38">
         <v>48</v>
       </c>
       <c r="AG12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" s="38">
         <v>28</v>
@@ -2383,28 +2383,28 @@
         <v>37</v>
       </c>
       <c r="AJ12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL12" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="33">
         <v>10.9</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4">
         <v>0.2</v>
@@ -2413,83 +2413,83 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="42">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X13" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="36"/>
       <c r="Z13" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="36">
         <v>9</v>
       </c>
       <c r="AE13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="36">
         <v>48</v>
       </c>
       <c r="AG13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="36">
         <v>32</v>
@@ -2498,27 +2498,27 @@
         <v>39</v>
       </c>
       <c r="AJ13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="31">
         <v>10.9</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>0.3</v>
@@ -2527,82 +2527,82 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="37">
         <v>9</v>
       </c>
       <c r="AE14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" s="37">
         <v>48</v>
       </c>
       <c r="AG14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="37">
         <v>32</v>
@@ -2611,28 +2611,28 @@
         <v>39</v>
       </c>
       <c r="AJ14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="15" thickBot="1">
       <c r="A15" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="32">
         <v>10.9</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="6">
         <v>0.28000000000000003</v>
@@ -2641,83 +2641,83 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="38">
         <v>9</v>
       </c>
       <c r="AE15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF15" s="38">
         <v>48</v>
       </c>
       <c r="AG15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="38">
         <v>32</v>
@@ -2726,28 +2726,28 @@
         <v>39</v>
       </c>
       <c r="AJ15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="33">
         <v>12.9</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>0.3</v>
@@ -2756,83 +2756,83 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" s="42">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X16" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="36"/>
       <c r="Z16" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="36">
         <v>8</v>
       </c>
       <c r="AE16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" s="36">
         <v>44</v>
       </c>
       <c r="AG16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" s="36">
         <v>39</v>
@@ -2841,28 +2841,28 @@
         <v>44</v>
       </c>
       <c r="AJ16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM16" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="32">
         <v>12.9</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
         <v>0.28000000000000003</v>
@@ -2871,83 +2871,83 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="38">
         <v>8</v>
       </c>
       <c r="AE17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" s="38">
         <v>44</v>
       </c>
       <c r="AG17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="38">
         <v>39</v>
@@ -2956,28 +2956,28 @@
         <v>44</v>
       </c>
       <c r="AJ17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:40" s="2" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="33">
         <v>0.38</v>
@@ -2986,28 +2986,28 @@
         <v>0.48</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="42">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="42">
         <v>0.04</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O18" s="42">
         <v>0.75</v>
@@ -3034,68 +3034,68 @@
         <v>0.25</v>
       </c>
       <c r="W18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z18" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="36">
         <v>16</v>
       </c>
       <c r="AE18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF18" s="41">
         <v>50</v>
       </c>
       <c r="AG18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI18" s="36">
         <v>35</v>
       </c>
       <c r="AJ18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM18" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN18" s="1"/>
     </row>
     <row r="19" spans="1:40" s="2" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="31">
         <v>0.38</v>
@@ -3104,28 +3104,28 @@
         <v>0.48</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="43">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="43">
         <v>0.04</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O19" s="43">
         <v>0.75</v>
@@ -3152,68 +3152,68 @@
         <v>0.25</v>
       </c>
       <c r="W19" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z19" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="37">
         <v>16</v>
       </c>
       <c r="AE19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="39">
         <v>50</v>
       </c>
       <c r="AG19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" s="37">
         <v>35</v>
       </c>
       <c r="AJ19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A20" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="32">
         <v>0.38</v>
@@ -3222,28 +3222,28 @@
         <v>0.48</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="44">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="44">
         <v>0.04</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O20" s="44">
         <v>0.75</v>
@@ -3270,94 +3270,94 @@
         <v>0.25</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X20" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD20" s="38">
         <v>18</v>
       </c>
       <c r="AE20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="40">
         <v>50</v>
       </c>
       <c r="AG20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI20" s="38">
         <v>35</v>
       </c>
       <c r="AJ20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" ht="15" thickBot="1">
       <c r="A21" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="22">
         <v>304</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="24">
         <v>0.08</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="24">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="24">
         <v>0.03</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" s="24">
         <v>8</v>
@@ -3366,7 +3366,7 @@
         <v>10.5</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21" s="24">
         <v>2</v>
@@ -3378,105 +3378,105 @@
         <v>20</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T21" s="25">
         <v>1</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X21" s="25">
         <v>1</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB21" s="7" t="s">
+      <c r="AC21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AC21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH21" s="7" t="s">
+      <c r="AI21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AI21" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AJ21" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK21" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM21" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1">
       <c r="A22" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="22">
         <v>316</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="E22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="24">
         <v>0.08</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="24">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="24">
         <v>0.03</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22" s="24">
         <v>10</v>
@@ -3485,7 +3485,7 @@
         <v>14</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22" s="24">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="S22" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T22" s="25">
         <v>1</v>
@@ -3511,154 +3511,154 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA22" s="7" t="s">
+      <c r="AB22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB22" s="7" t="s">
+      <c r="AC22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AC22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH22" s="7" t="s">
+      <c r="AI22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AI22" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AJ22" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK22" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM22" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="42">
         <v>0.33</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="42">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="42">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P23" s="42">
         <v>1.25</v>
       </c>
       <c r="Q23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X23" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ23" s="36">
         <v>69</v>
@@ -3667,230 +3667,230 @@
         <v>100</v>
       </c>
       <c r="AL23" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM23" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="43">
         <v>0.33</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="43">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P24" s="43">
         <v>1.25</v>
       </c>
       <c r="Q24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X24" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z24" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" s="37">
         <v>100</v>
       </c>
       <c r="AL24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM24" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="43">
         <v>0.33</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="43">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" s="43">
         <v>1.25</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X25" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z25" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA25" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="37">
         <v>69</v>
@@ -3899,127 +3899,127 @@
         <v>95</v>
       </c>
       <c r="AL25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="15" thickBot="1">
       <c r="A26" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="44">
         <v>0.33</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="44">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="44">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" s="44">
         <v>1.25</v>
       </c>
       <c r="Q26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z26" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA26" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK26" s="38">
         <v>95</v>
       </c>
       <c r="AL26" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM26" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:40">
